--- a/src/test/resources/test data/testData.xlsx
+++ b/src/test/resources/test data/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18BB3E72-2C58-486E-BDB9-E30B6BFD9D0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15BB2723-27CA-4D6D-9FD6-3CEF82AC79F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -36,25 +36,49 @@
     <t>size</t>
   </si>
   <si>
-    <t>hash</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
     <t>File upload happy path</t>
   </si>
   <si>
-    <t>Test1</t>
+    <t>uploadHappyPath</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>904560478</t>
-  </si>
-  <si>
-    <t>test1.pdf</t>
+    <t>Zero size file upload</t>
+  </si>
+  <si>
+    <t>sizeZeroFile</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Reduce BytesCompleted after successful upload</t>
+  </si>
+  <si>
+    <t>reduceBytes</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Invalid Token for Post Request</t>
+  </si>
+  <si>
+    <t>invalidPost</t>
+  </si>
+  <si>
+    <t>Invalid Token for Get Request</t>
+  </si>
+  <si>
+    <t>invalidGet</t>
+  </si>
+  <si>
+    <t>Invalid Token for Put Request</t>
+  </si>
+  <si>
+    <t>invalidPut</t>
   </si>
 </sst>
 </file>
@@ -408,22 +432,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,28 +457,71 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/test data/testData.xlsx
+++ b/src/test/resources/test data/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15BB2723-27CA-4D6D-9FD6-3CEF82AC79F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B0E035B-7E64-4D13-8AFA-2346D3086C34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -36,49 +36,37 @@
     <t>size</t>
   </si>
   <si>
-    <t>File upload happy path</t>
-  </si>
-  <si>
-    <t>uploadHappyPath</t>
+    <t>Upload file and validate in account</t>
+  </si>
+  <si>
+    <t>uploadFile</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>Zero size file upload</t>
-  </si>
-  <si>
-    <t>sizeZeroFile</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Reduce BytesCompleted after successful upload</t>
-  </si>
-  <si>
-    <t>reduceBytes</t>
+    <t>Approve the shared file from the receiver account</t>
+  </si>
+  <si>
+    <t>AcceptFile</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>Invalid Token for Post Request</t>
-  </si>
-  <si>
-    <t>invalidPost</t>
-  </si>
-  <si>
-    <t>Invalid Token for Get Request</t>
-  </si>
-  <si>
-    <t>invalidGet</t>
-  </si>
-  <si>
-    <t>Invalid Token for Put Request</t>
-  </si>
-  <si>
-    <t>invalidPut</t>
+    <t>Reject the shared file from the receiver account</t>
+  </si>
+  <si>
+    <t>RejectFile</t>
+  </si>
+  <si>
+    <t>Delete any file from your account</t>
+  </si>
+  <si>
+    <t>DeleteFile</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -432,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
@@ -488,40 +476,18 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
